--- a/data/longgold_codebook_new.xlsx
+++ b/data/longgold_codebook_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7B69C5-7380-4C54-97CD-7F565D6CEAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A353068-C6DA-435B-A19E-26246ECB8716}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
@@ -3032,9 +3032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F97" sqref="F97"/>
+      <selection pane="topRight" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
